--- a/GERM/GERM_modalities.xlsx
+++ b/GERM/GERM_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>

--- a/GERM/GERM_modalities.xlsx
+++ b/GERM/GERM_modalities.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,58 +514,33 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>In Person</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15</v>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>

--- a/GERM/GERM_modalities.xlsx
+++ b/GERM/GERM_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
